--- a/trading_helper.xlsx
+++ b/trading_helper.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjung\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5249A40-E51C-42D9-9AF7-6FD3687EAE10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1417550-01C6-41C3-9C0B-DD35E8A38E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E49DAB5-610B-467D-AAF4-4025BE610EED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4E49DAB5-610B-467D-AAF4-4025BE610EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Short-term trading" sheetId="1" r:id="rId1"/>
     <sheet name="Long-term trading" sheetId="2" r:id="rId2"/>
-    <sheet name="Read me" sheetId="3" r:id="rId3"/>
+    <sheet name="Valuation - Peer multiples" sheetId="4" r:id="rId3"/>
+    <sheet name="Read me" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,11 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
-  <si>
-    <t>TSLA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>Ticker:</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -139,6 +136,98 @@
   </si>
   <si>
     <t>For 7 Days</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAPL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ticker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Investment target)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group 1: Highly</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group 2: Moderate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group 3: Less</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Share</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market Cap</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revenue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross profit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EV/EBITDA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EV/EBIT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EV/REVENUE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Enterprise Multiples of Peers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average Equity Multiples of Peers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ticker Code</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>()</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PER (Market Cap/Net Income)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBITDA</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +237,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="182" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="176" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -237,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,8 +345,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -280,6 +375,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -292,7 +424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -335,13 +467,13 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -352,6 +484,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -689,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BFDB5F-A195-4591-AB11-28C7327D9F8C}">
-  <dimension ref="A2:L24"/>
+  <dimension ref="A2:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -705,217 +861,207 @@
   <sheetData>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
-      <c r="B2" s="1">
-        <v>0.88131944444444443</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F2" s="6">
-        <v>0.9553935185185185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.4"/>
+        <v>4.4560185185185182E-2</v>
+      </c>
+    </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="14">
-        <v>429.82998657226563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.4">
+        <v>258.01998901367188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D9" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D10" s="7"/>
       <c r="E10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="D11" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="15">
+        <v>176.79608154296875</v>
+      </c>
+      <c r="F11" s="15">
+        <v>128.22164916992188</v>
+      </c>
+      <c r="G11" s="15">
+        <v>191.42930603027344</v>
+      </c>
+      <c r="H11" s="15">
+        <v>258.10372924804688</v>
+      </c>
+      <c r="I11" s="15">
+        <v>200.85205078125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="D12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D11" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="15">
-        <v>364.64666748046875</v>
-      </c>
-      <c r="F11" s="15">
-        <v>109.09999847412109</v>
-      </c>
-      <c r="G11" s="15">
-        <v>256.6099853515625</v>
-      </c>
-      <c r="H11" s="15">
-        <v>454.1300048828125</v>
-      </c>
-      <c r="I11" s="15">
-        <v>323.6300048828125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="12" t="s">
         <v>8</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>9</v>
       </c>
       <c r="F12" s="12">
         <f>(F11-E11)/E11</f>
-        <v>-0.70080626479339836</v>
+        <v>-0.27474835386123242</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" ref="G12:I12" si="0">(G11-F11)/F11</f>
-        <v>1.352062226769245</v>
+        <v>0.49295619943701957</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" si="0"/>
-        <v>0.76972850164284268</v>
+        <v>0.34829788918123783</v>
       </c>
       <c r="I12" s="12">
         <f t="shared" si="0"/>
-        <v>-0.28736264637188047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.4">
+        <v>-0.2218165488487614</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D15" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D16" s="9"/>
       <c r="E16" s="8">
         <f ca="1">TODAY()-7</f>
-        <v>45927</v>
+        <v>45928</v>
       </c>
       <c r="F16" s="8">
         <f ca="1">TODAY()-6</f>
-        <v>45928</v>
+        <v>45929</v>
       </c>
       <c r="G16" s="8">
         <f ca="1">TODAY()-5</f>
-        <v>45929</v>
+        <v>45930</v>
       </c>
       <c r="H16" s="8">
         <f ca="1">TODAY()-4</f>
-        <v>45930</v>
+        <v>45931</v>
       </c>
       <c r="I16" s="8">
         <f ca="1">TODAY()-3</f>
-        <v>45931</v>
+        <v>45932</v>
       </c>
       <c r="J16" s="8">
         <f ca="1">TODAY()-2</f>
-        <v>45932</v>
+        <v>45933</v>
       </c>
       <c r="K16" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>45933</v>
+        <v>45934</v>
       </c>
       <c r="L16" s="13">
         <f ca="1">TODAY()</f>
-        <v>45934</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" customFormat="1" x14ac:dyDescent="0.4">
+        <v>45935</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D17" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
+      <c r="F17" s="16">
+        <v>254.42999267578125</v>
+      </c>
       <c r="G17" s="16">
-        <v>443.20999145507813</v>
+        <v>254.6300048828125</v>
       </c>
       <c r="H17" s="16">
-        <v>444.72000122070313</v>
+        <v>255.44999694824219</v>
       </c>
       <c r="I17" s="16">
-        <v>459.45999145507813</v>
+        <v>257.1300048828125</v>
       </c>
       <c r="J17" s="16">
-        <v>436</v>
+        <v>258.01998901367188</v>
       </c>
       <c r="K17" s="16">
-        <v>429.82998657226563</v>
+        <v>258.01998901367188</v>
       </c>
       <c r="L17" s="16">
         <v>429.82998657226563</v>
       </c>
     </row>
-    <row r="18" spans="4:12" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.4">
       <c r="D18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>8</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>9</v>
       </c>
       <c r="F18" s="17" t="e">
         <f>(E17-F17)/E17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="17" t="e">
+      <c r="G18" s="17">
         <f t="shared" ref="G18:L18" si="1">(F17-G17)/F17</f>
-        <v>#DIV/0!</v>
+        <v>-7.8611882556678164E-4</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="1"/>
-        <v>-3.4069849388267868E-3</v>
+        <v>-3.2203277292755408E-3</v>
       </c>
       <c r="I18" s="17">
         <f t="shared" si="1"/>
-        <v>-3.3144428390707623E-2</v>
+        <v>-6.5766606171097589E-3</v>
       </c>
       <c r="J18" s="17">
         <f t="shared" si="1"/>
-        <v>5.1059922281332805E-2</v>
+        <v>-3.4612223931819509E-3</v>
       </c>
       <c r="K18" s="17">
         <f t="shared" si="1"/>
-        <v>1.4151406944344897E-2</v>
+        <v>0</v>
       </c>
       <c r="L18" s="17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="22" spans="4:12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="4:12" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="4:12" customFormat="1" x14ac:dyDescent="0.4"/>
+        <v>-0.66587863295153438</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -925,14 +1071,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3846F4-553C-4F1B-9F9A-ED61D377490E}">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="3" width="1.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -940,11 +1095,325 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F70B292-7CC4-48FA-839A-9600180E9AFF}">
+  <dimension ref="A2:AZ32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="3" width="1.69921875" customWidth="1"/>
+    <col min="10" max="10" width="10.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J13" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN13" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX13" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="27">
+        <f ca="1">TODAY()</f>
+        <v>45935</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AP14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AU14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="AY14" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ14" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>3829117222912</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18"/>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F20" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23"/>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28"/>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F30" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F32" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735E3817-FD53-47E9-9A2B-CE8436D255F2}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -959,64 +1428,64 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/trading_helper.xlsx
+++ b/trading_helper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjung\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1417550-01C6-41C3-9C0B-DD35E8A38E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7945027-3C5E-4267-9D6C-F9C4DFA2501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4E49DAB5-610B-467D-AAF4-4025BE610EED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{4E49DAB5-610B-467D-AAF4-4025BE610EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Short-term trading" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+  <si>
+    <t>TSLA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
   <si>
     <t>Ticker:</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -228,6 +232,54 @@
   </si>
   <si>
     <t>EBITDA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key Financials</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write Ticker Code in "E3" and run trading_helper.py</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Q2024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Q2024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4Q2024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Q2025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Q2025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Income Statement (Quartely)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost of Revenue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>% Revenue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1, Added Key Financials - incomestatement in Quarter / 2025-10-05</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -412,6 +464,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -424,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,9 +528,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -508,6 +575,24 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -845,122 +930,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BFDB5F-A195-4591-AB11-28C7327D9F8C}">
-  <dimension ref="A2:L18"/>
+  <dimension ref="A2:P37"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="1.69921875" customWidth="1"/>
-    <col min="5" max="8" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2"/>
       <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="6">
-        <v>4.4560185185185182E-2</v>
+        <v>0.44575231481481481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6"/>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="14">
-        <v>258.01998901367188</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="13">
+        <v>429.82998657226563</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="D9" s="19" t="s">
-        <v>23</v>
+      <c r="D9" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D10" s="7"/>
       <c r="E10" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D11" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="15">
-        <v>176.79608154296875</v>
-      </c>
-      <c r="F11" s="15">
-        <v>128.22164916992188</v>
-      </c>
-      <c r="G11" s="15">
-        <v>191.42930603027344</v>
-      </c>
-      <c r="H11" s="15">
-        <v>258.10372924804688</v>
-      </c>
-      <c r="I11" s="15">
-        <v>200.85205078125</v>
+        <v>3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>364.64666748046875</v>
+      </c>
+      <c r="F11" s="14">
+        <v>109.09999847412109</v>
+      </c>
+      <c r="G11" s="14">
+        <v>256.6099853515625</v>
+      </c>
+      <c r="H11" s="14">
+        <v>454.1300048828125</v>
+      </c>
+      <c r="I11" s="14">
+        <v>323.6300048828125</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="D12" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="12">
+      <c r="E12" s="11" t="e">
+        <f>(E11-D11)/D11</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F12" s="11">
         <f>(F11-E11)/E11</f>
-        <v>-0.27474835386123242</v>
-      </c>
-      <c r="G12" s="12">
+        <v>-0.70080626479339836</v>
+      </c>
+      <c r="G12" s="11">
         <f t="shared" ref="G12:I12" si="0">(G11-F11)/F11</f>
-        <v>0.49295619943701957</v>
-      </c>
-      <c r="H12" s="12">
+        <v>1.352062226769245</v>
+      </c>
+      <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>0.34829788918123783</v>
-      </c>
-      <c r="I12" s="12">
+        <v>0.76972850164284268</v>
+      </c>
+      <c r="I12" s="11">
         <f t="shared" si="0"/>
-        <v>-0.2218165488487614</v>
+        <v>-0.28736264637188047</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="D15" s="19" t="s">
-        <v>24</v>
+      <c r="D15" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -994,72 +1082,328 @@
         <f ca="1">TODAY()-1</f>
         <v>45934</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <f ca="1">TODAY()</f>
         <v>45935</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="D17" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16">
-        <v>254.42999267578125</v>
-      </c>
-      <c r="G17" s="16">
-        <v>254.6300048828125</v>
-      </c>
-      <c r="H17" s="16">
-        <v>255.44999694824219</v>
-      </c>
-      <c r="I17" s="16">
-        <v>257.1300048828125</v>
-      </c>
-      <c r="J17" s="16">
-        <v>258.01998901367188</v>
-      </c>
-      <c r="K17" s="16">
-        <v>258.01998901367188</v>
-      </c>
-      <c r="L17" s="16">
+        <v>3</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15">
+        <v>443.20999145507813</v>
+      </c>
+      <c r="G17" s="15">
+        <v>444.72000122070313</v>
+      </c>
+      <c r="H17" s="15">
+        <v>459.45999145507813</v>
+      </c>
+      <c r="I17" s="15">
+        <v>436</v>
+      </c>
+      <c r="J17" s="15">
         <v>429.82998657226563</v>
       </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.4">
-      <c r="D18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="17" t="s">
+      <c r="K17" s="15">
+        <v>429.82998657226563</v>
+      </c>
+      <c r="L17" s="15">
+        <v>429.82998657226563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D18" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="17" t="e">
+      <c r="E18" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="16" t="e">
         <f>(E17-F17)/E17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="16">
         <f t="shared" ref="G18:L18" si="1">(F17-G17)/F17</f>
-        <v>-7.8611882556678164E-4</v>
-      </c>
-      <c r="H18" s="17">
+        <v>-3.4069849388267868E-3</v>
+      </c>
+      <c r="H18" s="16">
         <f t="shared" si="1"/>
-        <v>-3.2203277292755408E-3</v>
-      </c>
-      <c r="I18" s="17">
+        <v>-3.3144428390707623E-2</v>
+      </c>
+      <c r="I18" s="16">
         <f t="shared" si="1"/>
-        <v>-6.5766606171097589E-3</v>
-      </c>
-      <c r="J18" s="17">
+        <v>5.1059922281332805E-2</v>
+      </c>
+      <c r="J18" s="16">
         <f t="shared" si="1"/>
-        <v>-3.4612223931819509E-3</v>
-      </c>
-      <c r="K18" s="17">
+        <v>1.4151406944344897E-2</v>
+      </c>
+      <c r="K18" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="16">
         <f t="shared" si="1"/>
-        <v>-0.66587863295153438</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21"/>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D23" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D24" s="29"/>
+      <c r="E24" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D25" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>25500000000</v>
+      </c>
+      <c r="F25">
+        <v>25182000000</v>
+      </c>
+      <c r="G25">
+        <v>25707000000</v>
+      </c>
+      <c r="H25">
+        <v>19335000000</v>
+      </c>
+      <c r="I25">
+        <v>22496000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D26" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26">
+        <v>20922000000</v>
+      </c>
+      <c r="F26">
+        <v>20185000000</v>
+      </c>
+      <c r="G26">
+        <v>21528000000</v>
+      </c>
+      <c r="H26">
+        <v>16182000000</v>
+      </c>
+      <c r="I26">
+        <v>18618000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D27" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="32">
+        <f>E26/E25</f>
+        <v>0.82047058823529406</v>
+      </c>
+      <c r="F27" s="32">
+        <f t="shared" ref="F27:I27" si="2">F26/F25</f>
+        <v>0.80156460964180765</v>
+      </c>
+      <c r="G27" s="32">
+        <f t="shared" si="2"/>
+        <v>0.83743727389427003</v>
+      </c>
+      <c r="H27" s="32">
+        <f t="shared" si="2"/>
+        <v>0.83692785104732348</v>
+      </c>
+      <c r="I27" s="32">
+        <f t="shared" si="2"/>
+        <v>0.82761379800853485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D28" s="28"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D30" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <f>E25-E26</f>
+        <v>4578000000</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:I30" si="3">F25-F26</f>
+        <v>4997000000</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>4179000000</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>3153000000</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>3878000000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D31" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="32">
+        <f>E30/E25</f>
+        <v>0.17952941176470588</v>
+      </c>
+      <c r="F31" s="32">
+        <f t="shared" ref="F31:I31" si="4">F30/F25</f>
+        <v>0.19843539035819235</v>
+      </c>
+      <c r="G31" s="32">
+        <f t="shared" si="4"/>
+        <v>0.16256272610572994</v>
+      </c>
+      <c r="H31" s="32">
+        <f t="shared" si="4"/>
+        <v>0.16307214895267649</v>
+      </c>
+      <c r="I31" s="32">
+        <f t="shared" si="4"/>
+        <v>0.17238620199146515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="D32" s="28"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D33" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>1873000000</v>
+      </c>
+      <c r="F33">
+        <v>2876000000</v>
+      </c>
+      <c r="G33">
+        <v>2862000000</v>
+      </c>
+      <c r="H33">
+        <v>680000000</v>
+      </c>
+      <c r="I33">
+        <v>1635000000</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D34" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="32">
+        <f>E33/E25</f>
+        <v>7.3450980392156862E-2</v>
+      </c>
+      <c r="F34" s="32">
+        <f t="shared" ref="F34:I34" si="5">F33/F25</f>
+        <v>0.11420856167103487</v>
+      </c>
+      <c r="G34" s="32">
+        <f t="shared" si="5"/>
+        <v>0.11133154393744894</v>
+      </c>
+      <c r="H34" s="32">
+        <f t="shared" si="5"/>
+        <v>3.5169381949831914E-2</v>
+      </c>
+      <c r="I34" s="32">
+        <f t="shared" si="5"/>
+        <v>7.267958748221906E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D35" s="30"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D36" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="E36">
+        <v>3151000000</v>
+      </c>
+      <c r="F36">
+        <v>4224000000</v>
+      </c>
+      <c r="G36">
+        <v>4358000000</v>
+      </c>
+      <c r="H36">
+        <v>2127000000</v>
+      </c>
+      <c r="I36">
+        <v>3068000000</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D37" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="32">
+        <f>E36/E25</f>
+        <v>0.12356862745098039</v>
+      </c>
+      <c r="F37" s="32">
+        <f t="shared" ref="F37:I37" si="6">F36/F25</f>
+        <v>0.16773886109125566</v>
+      </c>
+      <c r="G37" s="32">
+        <f t="shared" si="6"/>
+        <v>0.1695258100906368</v>
+      </c>
+      <c r="H37" s="32">
+        <f t="shared" si="6"/>
+        <v>0.11000775795190069</v>
+      </c>
+      <c r="I37" s="32">
+        <f t="shared" si="6"/>
+        <v>0.13637980085348506</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1428,7 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F70B292-7CC4-48FA-839A-9600180E9AFF}">
   <dimension ref="A2:AZ32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1110,203 +1454,203 @@
   <sheetData>
     <row r="2" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J13" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD13" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS13" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX13" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F14" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="13" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J13" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y13" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD13" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI13" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN13" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX13" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F14" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="J14" s="27">
+      <c r="J14" s="26">
         <f ca="1">TODAY()</f>
         <v>45935</v>
       </c>
-      <c r="M14" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="25" t="s">
+      <c r="M14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="25" t="s">
+      <c r="N14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="25" t="s">
+      <c r="O14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="Q14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="R14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="S14" s="25" t="s">
+      <c r="P14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="S14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="U14" s="25" t="s">
+      <c r="T14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="V14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="W14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="X14" s="25" t="s">
+      <c r="U14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="W14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="25" t="s">
+      <c r="X14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Z14" s="25" t="s">
+      <c r="Y14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AA14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC14" s="25" t="s">
+      <c r="Z14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AD14" s="25" t="s">
+      <c r="AC14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AE14" s="25" t="s">
+      <c r="AD14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AF14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH14" s="25" t="s">
+      <c r="AE14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AI14" s="25" t="s">
+      <c r="AH14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AJ14" s="25" t="s">
+      <c r="AI14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AK14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM14" s="25" t="s">
+      <c r="AJ14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AN14" s="25" t="s">
+      <c r="AM14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AO14" s="25" t="s">
+      <c r="AN14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AP14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR14" s="25" t="s">
+      <c r="AO14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AS14" s="25" t="s">
+      <c r="AR14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AT14" s="25" t="s">
+      <c r="AS14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AU14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="AV14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW14" s="25" t="s">
+      <c r="AT14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU14" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV14" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="AX14" s="25" t="s">
+      <c r="AW14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AY14" s="25" t="s">
+      <c r="AX14" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AZ14" s="26" t="s">
-        <v>10</v>
+      <c r="AY14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ14" s="25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="C15" s="19"/>
       <c r="D15" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1318,85 +1662,85 @@
     </row>
     <row r="16" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J16">
         <v>3829117222912</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18"/>
       <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F21" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F26" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28"/>
       <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1410,10 +1754,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735E3817-FD53-47E9-9A2B-CE8436D255F2}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1428,64 +1772,69 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="18" t="s">
         <v>17</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/trading_helper.xlsx
+++ b/trading_helper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjung\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7945027-3C5E-4267-9D6C-F9C4DFA2501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01577E7F-F27F-46D7-8EC2-73884086A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{4E49DAB5-610B-467D-AAF4-4025BE610EED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E49DAB5-610B-467D-AAF4-4025BE610EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Short-term trading" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
   <si>
     <t>TSLA</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>For pest 5 years</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>For 7 Days</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -263,10 +259,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Income Statement (Quartely)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Cost of Revenue</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -279,7 +271,95 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>v1.1, Added Key Financials - incomestatement in Quarter / 2025-10-05</t>
+    <t>v1.1, Added Key Financials - income statement in Quarter / 2025-10-05</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Income Statement (Quartely) - Investment Target</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer 1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer 2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer 3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer 4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer 5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer 6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer 7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer 8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer 9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Multiples Analyze</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price (Quartely)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimated Price</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimating date:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Estimated by Regression on Price, Revenue)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Given Estimated Revenue:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>When Revenue is</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>the Estimated Price is</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Price Estimation (예상 매출을 통한 주가 분석), PER에 대한 Linear Regression을 통한 예측</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>difference from actual</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Actual - estimated)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2, Price Estimation through Revenue by Linear Regression using Past Data(Past Revenue, Pest Price)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -287,11 +367,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="185" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,8 +458,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,8 +492,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -482,6 +583,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -494,7 +606,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,6 +704,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -930,13 +1087,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BFDB5F-A195-4591-AB11-28C7327D9F8C}">
-  <dimension ref="A2:P37"/>
+  <dimension ref="A2:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="1.69921875" customWidth="1"/>
   </cols>
@@ -953,12 +1110,12 @@
         <v>0</v>
       </c>
       <c r="F2" s="6">
-        <v>0.44575231481481481</v>
+        <v>0.54616898148148152</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -980,25 +1137,29 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D9" s="18" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D10" s="7"/>
       <c r="E10" s="8" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="J10" s="36">
+        <f ca="1">TODAY()</f>
+        <v>45935</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1006,20 +1167,21 @@
         <v>3</v>
       </c>
       <c r="E11" s="14">
-        <v>364.64666748046875</v>
+        <v>197.41999816894531</v>
       </c>
       <c r="F11" s="14">
-        <v>109.09999847412109</v>
+        <v>260.45999145507813</v>
       </c>
       <c r="G11" s="14">
-        <v>256.6099853515625</v>
+        <v>454.1300048828125</v>
       </c>
       <c r="H11" s="14">
-        <v>454.1300048828125</v>
+        <v>273.1300048828125</v>
       </c>
       <c r="I11" s="14">
         <v>323.6300048828125</v>
       </c>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D12" s="31" t="s">
@@ -1031,24 +1193,39 @@
       </c>
       <c r="F12" s="11">
         <f>(F11-E11)/E11</f>
-        <v>-0.70080626479339836</v>
+        <v>0.31931918686467281</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" ref="G12:I12" si="0">(G11-F11)/F11</f>
-        <v>1.352062226769245</v>
+        <v>0.74356914605495905</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="0"/>
-        <v>0.76972850164284268</v>
+        <v>-0.39856428347364264</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="0"/>
-        <v>-0.28736264637188047</v>
-      </c>
+        <v>0.18489363708563336</v>
+      </c>
+      <c r="J12" s="37">
+        <f>(J11-I11)/I11</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="D13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D15" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -1087,7 +1264,7 @@
         <v>45935</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D17" s="10" t="s">
         <v>3</v>
       </c>
@@ -1110,11 +1287,9 @@
       <c r="K17" s="15">
         <v>429.82998657226563</v>
       </c>
-      <c r="L17" s="15">
-        <v>429.82998657226563</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="L17" s="15"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D18" s="31" t="s">
         <v>8</v>
       </c>
@@ -1147,262 +1322,396 @@
       </c>
       <c r="L18" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21"/>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D23" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
+        <v>59</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D24" s="29"/>
       <c r="E24" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="G24" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G24" s="27" t="s">
+      <c r="H24" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="27" t="s">
+      <c r="I24" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
+      <c r="K24" s="38" t="s">
+        <v>72</v>
+      </c>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D25" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25">
+        <v>35</v>
+      </c>
+      <c r="E25" s="33">
         <v>25500000000</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="33">
         <v>25182000000</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="33">
         <v>25707000000</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="33">
         <v>19335000000</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="33">
         <v>22496000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="D26" s="28" t="s">
+      <c r="K25" s="22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D26" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="32">
+        <f>(F25-E25)/E25</f>
+        <v>-1.2470588235294117E-2</v>
+      </c>
+      <c r="G26" s="32">
+        <f t="shared" ref="G26:I26" si="2">(G25-F25)/F25</f>
+        <v>2.0848224922563736E-2</v>
+      </c>
+      <c r="H26" s="32">
+        <f t="shared" si="2"/>
+        <v>-0.24787022989847124</v>
+      </c>
+      <c r="I26" s="32">
+        <f t="shared" si="2"/>
+        <v>0.16348590638738039</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D27" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="33">
+        <v>20922000000</v>
+      </c>
+      <c r="F27" s="33">
+        <v>20185000000</v>
+      </c>
+      <c r="G27" s="33">
+        <v>21528000000</v>
+      </c>
+      <c r="H27" s="33">
+        <v>16182000000</v>
+      </c>
+      <c r="I27" s="33">
+        <v>18618000000</v>
+      </c>
+      <c r="K27" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D28" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="E26">
-        <v>20922000000</v>
-      </c>
-      <c r="F26">
-        <v>20185000000</v>
-      </c>
-      <c r="G26">
-        <v>21528000000</v>
-      </c>
-      <c r="H26">
-        <v>16182000000</v>
-      </c>
-      <c r="I26">
-        <v>18618000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="D27" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="32">
-        <f>E26/E25</f>
+      <c r="E28" s="32">
+        <f>E27/E25</f>
         <v>0.82047058823529406</v>
       </c>
-      <c r="F27" s="32">
-        <f t="shared" ref="F27:I27" si="2">F26/F25</f>
+      <c r="F28" s="32">
+        <f t="shared" ref="F28:I28" si="3">F27/F25</f>
         <v>0.80156460964180765</v>
       </c>
-      <c r="G27" s="32">
-        <f t="shared" si="2"/>
+      <c r="G28" s="32">
+        <f t="shared" si="3"/>
         <v>0.83743727389427003</v>
       </c>
-      <c r="H27" s="32">
-        <f t="shared" si="2"/>
+      <c r="H28" s="32">
+        <f t="shared" si="3"/>
         <v>0.83692785104732348</v>
       </c>
-      <c r="I27" s="32">
-        <f t="shared" si="2"/>
+      <c r="I28" s="32">
+        <f t="shared" si="3"/>
         <v>0.82761379800853485</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="K28" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="D30" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30">
-        <f>E25-E26</f>
+      <c r="K29" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="40" t="str">
+        <f>I24</f>
+        <v>2Q2025</v>
+      </c>
+      <c r="M29" s="41">
+        <f>I25</f>
+        <v>22496000000</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" s="43">
+        <v>295.79678980057713</v>
+      </c>
+      <c r="P29" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="47">
+        <f>I11-O29</f>
+        <v>27.83321508223537</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D30" s="28"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40" t="str">
+        <f>H24</f>
+        <v>1Q2025</v>
+      </c>
+      <c r="M30" s="41">
+        <f>H25</f>
+        <v>19335000000</v>
+      </c>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43">
+        <v>279.39370256937013</v>
+      </c>
+      <c r="P30" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30" s="47">
+        <f>H11-O30</f>
+        <v>-6.2636976865576344</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D31" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="34">
+        <f>E25-E27</f>
         <v>4578000000</v>
       </c>
-      <c r="F30">
-        <f t="shared" ref="F30:I30" si="3">F25-F26</f>
+      <c r="F31" s="34">
+        <f t="shared" ref="F31:I31" si="4">F25-F27</f>
         <v>4997000000</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="3"/>
+      <c r="G31" s="34">
+        <f t="shared" si="4"/>
         <v>4179000000</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="3"/>
+      <c r="H31" s="34">
+        <f t="shared" si="4"/>
         <v>3153000000</v>
       </c>
-      <c r="I30">
-        <f t="shared" si="3"/>
+      <c r="I31" s="34">
+        <f t="shared" si="4"/>
         <v>3878000000</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="D31" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="32">
-        <f>E30/E25</f>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40" t="str">
+        <f>G24</f>
+        <v>4Q2024</v>
+      </c>
+      <c r="M31" s="41">
+        <f>G25</f>
+        <v>25707000000</v>
+      </c>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43">
+        <v>312.45933744353994</v>
+      </c>
+      <c r="P31" s="45"/>
+      <c r="Q31" s="47">
+        <f>G11-O31</f>
+        <v>141.67066743927256</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="D32" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="32">
+        <f>E31/E25</f>
         <v>0.17952941176470588</v>
       </c>
-      <c r="F31" s="32">
-        <f t="shared" ref="F31:I31" si="4">F30/F25</f>
+      <c r="F32" s="32">
+        <f t="shared" ref="F32:I32" si="5">F31/F25</f>
         <v>0.19843539035819235</v>
       </c>
-      <c r="G31" s="32">
-        <f t="shared" si="4"/>
+      <c r="G32" s="32">
+        <f t="shared" si="5"/>
         <v>0.16256272610572994</v>
       </c>
-      <c r="H31" s="32">
-        <f t="shared" si="4"/>
+      <c r="H32" s="32">
+        <f t="shared" si="5"/>
         <v>0.16307214895267649</v>
       </c>
-      <c r="I31" s="32">
-        <f t="shared" si="4"/>
+      <c r="I32" s="32">
+        <f t="shared" si="5"/>
         <v>0.17238620199146515</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D33" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33">
+      <c r="K32" s="40"/>
+      <c r="L32" s="40" t="str">
+        <f>F24</f>
+        <v>3Q2024</v>
+      </c>
+      <c r="M32" s="41">
+        <f>F25</f>
+        <v>25182000000</v>
+      </c>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43">
+        <v>309.73500312010316</v>
+      </c>
+      <c r="P32" s="45"/>
+      <c r="Q32" s="47">
+        <f>F11-O32</f>
+        <v>-49.275011665025033</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D33" s="28"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40" t="str">
+        <f>E24</f>
+        <v>2Q2024</v>
+      </c>
+      <c r="M33" s="41">
+        <f>E25</f>
+        <v>25500000000</v>
+      </c>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43">
+        <v>311.38517133887058</v>
+      </c>
+      <c r="P33" s="45"/>
+      <c r="Q33" s="47">
+        <f>E11-O33</f>
+        <v>-113.96517316992527</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D34" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="34">
         <v>1873000000</v>
       </c>
-      <c r="F33">
+      <c r="F34" s="34">
         <v>2876000000</v>
       </c>
-      <c r="G33">
+      <c r="G34" s="34">
         <v>2862000000</v>
       </c>
-      <c r="H33">
+      <c r="H34" s="34">
         <v>680000000</v>
       </c>
-      <c r="I33">
+      <c r="I34" s="34">
         <v>1635000000</v>
       </c>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D34" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" s="32">
-        <f>E33/E25</f>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D35" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="32">
+        <f>E34/E25</f>
         <v>7.3450980392156862E-2</v>
       </c>
-      <c r="F34" s="32">
-        <f t="shared" ref="F34:I34" si="5">F33/F25</f>
+      <c r="F35" s="32">
+        <f t="shared" ref="F35:I35" si="6">F34/F25</f>
         <v>0.11420856167103487</v>
       </c>
-      <c r="G34" s="32">
-        <f t="shared" si="5"/>
+      <c r="G35" s="32">
+        <f t="shared" si="6"/>
         <v>0.11133154393744894</v>
       </c>
-      <c r="H34" s="32">
-        <f t="shared" si="5"/>
+      <c r="H35" s="32">
+        <f t="shared" si="6"/>
         <v>3.5169381949831914E-2</v>
       </c>
-      <c r="I34" s="32">
-        <f t="shared" si="5"/>
+      <c r="I35" s="32">
+        <f t="shared" si="6"/>
         <v>7.267958748221906E-2</v>
       </c>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D35" s="30"/>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D36" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E36">
+    <row r="36" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D36" s="30"/>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D37" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="34">
         <v>3151000000</v>
       </c>
-      <c r="F36">
+      <c r="F37" s="34">
         <v>4224000000</v>
       </c>
-      <c r="G36">
+      <c r="G37" s="34">
         <v>4358000000</v>
       </c>
-      <c r="H36">
+      <c r="H37" s="34">
         <v>2127000000</v>
       </c>
-      <c r="I36">
+      <c r="I37" s="34">
         <v>3068000000</v>
       </c>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D37" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="32">
-        <f>E36/E25</f>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.4">
+      <c r="D38" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="32">
+        <f>E37/E25</f>
         <v>0.12356862745098039</v>
       </c>
-      <c r="F37" s="32">
-        <f t="shared" ref="F37:I37" si="6">F36/F25</f>
+      <c r="F38" s="32">
+        <f t="shared" ref="F38:I38" si="7">F37/F25</f>
         <v>0.16773886109125566</v>
       </c>
-      <c r="G37" s="32">
-        <f t="shared" si="6"/>
+      <c r="G38" s="32">
+        <f t="shared" si="7"/>
         <v>0.1695258100906368</v>
       </c>
-      <c r="H37" s="32">
-        <f t="shared" si="6"/>
+      <c r="H38" s="32">
+        <f t="shared" si="7"/>
         <v>0.11000775795190069</v>
       </c>
-      <c r="I37" s="32">
-        <f t="shared" si="6"/>
+      <c r="I38" s="32">
+        <f t="shared" si="7"/>
         <v>0.13637980085348506</v>
       </c>
     </row>
@@ -1440,311 +1749,343 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F70B292-7CC4-48FA-839A-9600180E9AFF}">
-  <dimension ref="A2:AZ32"/>
+  <dimension ref="A2:AZ34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="1.69921875" customWidth="1"/>
-    <col min="10" max="10" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="D3" t="s">
-        <v>39</v>
+    <row r="2" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A2"/>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI15" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS15" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX15" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F16" s="22" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J13" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="T13" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y13" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD13" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN13" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="AS13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX13" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F14" s="22" t="s">
+      <c r="H16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" s="26"/>
+      <c r="M16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="R16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="U16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="W16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="X16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AO16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AT16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU16" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW16" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="AY16" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ16" s="25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="35">
+        <v>3829117222912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" s="26">
-        <f ca="1">TODAY()</f>
-        <v>45935</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="P14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="R14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="U14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="V14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="W14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU14" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW14" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY14" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ14" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25"/>
+      <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:52" x14ac:dyDescent="0.4">
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16">
-        <v>3829117222912</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18"/>
-      <c r="B18" t="s">
+      <c r="D25" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D28" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30"/>
+      <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F19" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F20" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23"/>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="20" t="s">
+      <c r="D30" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F25" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F26" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28"/>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F29" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F30" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="F32" s="2"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="D33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+      <c r="F34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1754,9 +2095,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735E3817-FD53-47E9-9A2B-CE8436D255F2}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1834,7 +2175,12 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/trading_helper.xlsx
+++ b/trading_helper.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjung\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjung\OneDrive\바탕 화면\새 폴더 (4)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01577E7F-F27F-46D7-8EC2-73884086A612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99DAE90-C389-4369-9702-791E1B0D5C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E49DAB5-610B-467D-AAF4-4025BE610EED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{4E49DAB5-610B-467D-AAF4-4025BE610EED}"/>
   </bookViews>
   <sheets>
     <sheet name="Short-term trading" sheetId="1" r:id="rId1"/>
     <sheet name="Long-term trading" sheetId="2" r:id="rId2"/>
     <sheet name="Valuation - Peer multiples" sheetId="4" r:id="rId3"/>
     <sheet name="Read me" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="85">
   <si>
     <t>TSLA</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -57,22 +58,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FY2021</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY2022</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY2023</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FY2024</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>% Growth</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -163,18 +148,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Market price</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Market Share</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enterprise Value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Market Cap</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -183,10 +156,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Gross profit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -360,6 +329,53 @@
   </si>
   <si>
     <t>v1.2, Price Estimation through Revenue by Linear Regression using Past Data(Past Revenue, Pest Price)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open (TSLA)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close (TSLA)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>High (TSLA)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low (TSLA)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volume (TSLA)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fluctuation(High / Low)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Close - Open)/Open</t>
+  </si>
+  <si>
+    <t>1Q2024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Q2025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1H2024</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY2024A</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -370,7 +386,7 @@
   <numFmts count="3">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="185" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="177" formatCode="_-\$* #,##0.00_ ;_-\$* \-#,##0.00\ ;_-\$* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -505,7 +521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -524,43 +540,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -606,7 +585,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,28 +655,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,50 +676,62 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1089,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BFDB5F-A195-4591-AB11-28C7327D9F8C}">
   <dimension ref="A2:Q38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -1115,7 +1097,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="E3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1124,12 +1106,12 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E7" s="13">
         <v>429.82998657226563</v>
@@ -1137,29 +1119,29 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D9" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D10" s="7"/>
       <c r="E10" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="36">
+        <v>46</v>
+      </c>
+      <c r="J10" s="32">
         <f ca="1">TODAY()</f>
-        <v>45935</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
@@ -1184,8 +1166,8 @@
       <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="D12" s="31" t="s">
-        <v>8</v>
+      <c r="D12" s="28" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="11" t="e">
         <f>(E11-D11)/D11</f>
@@ -1207,25 +1189,25 @@
         <f t="shared" si="0"/>
         <v>0.18489363708563336</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="11">
         <f>(J11-I11)/I11</f>
         <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="D13" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
+      <c r="D13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="D15" s="18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L15" s="2"/>
     </row>
@@ -1233,35 +1215,35 @@
       <c r="D16" s="9"/>
       <c r="E16" s="8">
         <f ca="1">TODAY()-7</f>
-        <v>45928</v>
+        <v>45934</v>
       </c>
       <c r="F16" s="8">
         <f ca="1">TODAY()-6</f>
-        <v>45929</v>
+        <v>45935</v>
       </c>
       <c r="G16" s="8">
         <f ca="1">TODAY()-5</f>
-        <v>45930</v>
+        <v>45936</v>
       </c>
       <c r="H16" s="8">
         <f ca="1">TODAY()-4</f>
-        <v>45931</v>
+        <v>45937</v>
       </c>
       <c r="I16" s="8">
         <f ca="1">TODAY()-3</f>
-        <v>45932</v>
+        <v>45938</v>
       </c>
       <c r="J16" s="8">
         <f ca="1">TODAY()-2</f>
-        <v>45933</v>
+        <v>45939</v>
       </c>
       <c r="K16" s="8">
         <f ca="1">TODAY()-1</f>
-        <v>45934</v>
+        <v>45940</v>
       </c>
       <c r="L16" s="12">
         <f ca="1">TODAY()</f>
-        <v>45935</v>
+        <v>45941</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
@@ -1290,11 +1272,11 @@
       <c r="L17" s="15"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D18" s="31" t="s">
-        <v>8</v>
+      <c r="D18" s="28" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F18" s="16" t="e">
         <f>(E17-F17)/E17</f>
@@ -1331,37 +1313,37 @@
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D23" s="18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D24" s="29"/>
-      <c r="E24" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="27" t="s">
-        <v>54</v>
+      <c r="D24" s="26"/>
+      <c r="E24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="J24" s="22"/>
-      <c r="K24" s="38" t="s">
-        <v>72</v>
+      <c r="K24" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="L24" s="22"/>
       <c r="M24" s="22"/>
@@ -1370,347 +1352,347 @@
       <c r="P24" s="22"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D25" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="33">
+      <c r="D25" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="30">
         <v>25500000000</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="30">
         <v>25182000000</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="30">
         <v>25707000000</v>
       </c>
-      <c r="H25" s="33">
+      <c r="H25" s="30">
         <v>19335000000</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="30">
         <v>22496000000</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D26" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="32">
+      <c r="D26" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="29">
         <f>(F25-E25)/E25</f>
         <v>-1.2470588235294117E-2</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="29">
         <f t="shared" ref="G26:I26" si="2">(G25-F25)/F25</f>
         <v>2.0848224922563736E-2</v>
       </c>
-      <c r="H26" s="32">
+      <c r="H26" s="29">
         <f t="shared" si="2"/>
         <v>-0.24787022989847124</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="29">
         <f t="shared" si="2"/>
         <v>0.16348590638738039</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D27" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="33">
+      <c r="D27" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="30">
         <v>20922000000</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="30">
         <v>20185000000</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="30">
         <v>21528000000</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="30">
         <v>16182000000</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="30">
         <v>18618000000</v>
       </c>
-      <c r="K27" s="39" t="s">
-        <v>71</v>
+      <c r="K27" s="33" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D28" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="32">
+      <c r="D28" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="29">
         <f>E27/E25</f>
         <v>0.82047058823529406</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="29">
         <f t="shared" ref="F28:I28" si="3">F27/F25</f>
         <v>0.80156460964180765</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="29">
         <f t="shared" si="3"/>
         <v>0.83743727389427003</v>
       </c>
-      <c r="H28" s="32">
+      <c r="H28" s="29">
         <f t="shared" si="3"/>
         <v>0.83692785104732348</v>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="29">
         <f t="shared" si="3"/>
         <v>0.82761379800853485</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D29" s="28"/>
-      <c r="K29" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="L29" s="40" t="str">
+      <c r="D29" s="25"/>
+      <c r="K29" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="34" t="str">
         <f>I24</f>
         <v>2Q2025</v>
       </c>
-      <c r="M29" s="41">
+      <c r="M29" s="35">
         <f>I25</f>
         <v>22496000000</v>
       </c>
-      <c r="N29" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="O29" s="43">
+      <c r="N29" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" s="37">
         <v>295.79678980057713</v>
       </c>
-      <c r="P29" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q29" s="47">
+      <c r="P29" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q29" s="41">
         <f>I11-O29</f>
         <v>27.83321508223537</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D30" s="28"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40" t="str">
+      <c r="D30" s="25"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34" t="str">
         <f>H24</f>
         <v>1Q2025</v>
       </c>
-      <c r="M30" s="41">
+      <c r="M30" s="35">
         <f>H25</f>
         <v>19335000000</v>
       </c>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43">
+      <c r="N30" s="37"/>
+      <c r="O30" s="37">
         <v>279.39370256937013</v>
       </c>
-      <c r="P30" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q30" s="47">
+      <c r="P30" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="41">
         <f>H11-O30</f>
         <v>-6.2636976865576344</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D31" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="34">
+      <c r="D31" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="31">
         <f>E25-E27</f>
         <v>4578000000</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="31">
         <f t="shared" ref="F31:I31" si="4">F25-F27</f>
         <v>4997000000</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="31">
         <f t="shared" si="4"/>
         <v>4179000000</v>
       </c>
-      <c r="H31" s="34">
+      <c r="H31" s="31">
         <f t="shared" si="4"/>
         <v>3153000000</v>
       </c>
-      <c r="I31" s="34">
+      <c r="I31" s="31">
         <f t="shared" si="4"/>
         <v>3878000000</v>
       </c>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40" t="str">
+      <c r="K31" s="34"/>
+      <c r="L31" s="34" t="str">
         <f>G24</f>
         <v>4Q2024</v>
       </c>
-      <c r="M31" s="41">
+      <c r="M31" s="35">
         <f>G25</f>
         <v>25707000000</v>
       </c>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43">
+      <c r="N31" s="37"/>
+      <c r="O31" s="37">
         <v>312.45933744353994</v>
       </c>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="47">
+      <c r="P31" s="39"/>
+      <c r="Q31" s="41">
         <f>G11-O31</f>
         <v>141.67066743927256</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D32" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="32">
+      <c r="D32" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="29">
         <f>E31/E25</f>
         <v>0.17952941176470588</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="29">
         <f t="shared" ref="F32:I32" si="5">F31/F25</f>
         <v>0.19843539035819235</v>
       </c>
-      <c r="G32" s="32">
+      <c r="G32" s="29">
         <f t="shared" si="5"/>
         <v>0.16256272610572994</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="29">
         <f t="shared" si="5"/>
         <v>0.16307214895267649</v>
       </c>
-      <c r="I32" s="32">
+      <c r="I32" s="29">
         <f t="shared" si="5"/>
         <v>0.17238620199146515</v>
       </c>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40" t="str">
+      <c r="K32" s="34"/>
+      <c r="L32" s="34" t="str">
         <f>F24</f>
         <v>3Q2024</v>
       </c>
-      <c r="M32" s="41">
+      <c r="M32" s="35">
         <f>F25</f>
         <v>25182000000</v>
       </c>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43">
+      <c r="N32" s="37"/>
+      <c r="O32" s="37">
         <v>309.73500312010316</v>
       </c>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="47">
+      <c r="P32" s="39"/>
+      <c r="Q32" s="41">
         <f>F11-O32</f>
         <v>-49.275011665025033</v>
       </c>
     </row>
     <row r="33" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D33" s="28"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40" t="str">
+      <c r="D33" s="25"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34" t="str">
         <f>E24</f>
         <v>2Q2024</v>
       </c>
-      <c r="M33" s="41">
+      <c r="M33" s="35">
         <f>E25</f>
         <v>25500000000</v>
       </c>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43">
+      <c r="N33" s="37"/>
+      <c r="O33" s="37">
         <v>311.38517133887058</v>
       </c>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="47">
+      <c r="P33" s="39"/>
+      <c r="Q33" s="41">
         <f>E11-O33</f>
         <v>-113.96517316992527</v>
       </c>
     </row>
     <row r="34" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D34" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="34">
+      <c r="D34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="31">
         <v>1873000000</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="31">
         <v>2876000000</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="31">
         <v>2862000000</v>
       </c>
-      <c r="H34" s="34">
+      <c r="H34" s="31">
         <v>680000000</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="31">
         <v>1635000000</v>
       </c>
     </row>
     <row r="35" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D35" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="32">
+      <c r="D35" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="29">
         <f>E34/E25</f>
         <v>7.3450980392156862E-2</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="29">
         <f t="shared" ref="F35:I35" si="6">F34/F25</f>
         <v>0.11420856167103487</v>
       </c>
-      <c r="G35" s="32">
+      <c r="G35" s="29">
         <f t="shared" si="6"/>
         <v>0.11133154393744894</v>
       </c>
-      <c r="H35" s="32">
+      <c r="H35" s="29">
         <f t="shared" si="6"/>
         <v>3.5169381949831914E-2</v>
       </c>
-      <c r="I35" s="32">
+      <c r="I35" s="29">
         <f t="shared" si="6"/>
         <v>7.267958748221906E-2</v>
       </c>
     </row>
     <row r="36" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D36" s="30"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D37" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="34">
+      <c r="D37" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="31">
         <v>3151000000</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="31">
         <v>4224000000</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="31">
         <v>4358000000</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H37" s="31">
         <v>2127000000</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="31">
         <v>3068000000</v>
       </c>
     </row>
     <row r="38" spans="4:17" x14ac:dyDescent="0.4">
-      <c r="D38" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="32">
+      <c r="D38" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="29">
         <f>E37/E25</f>
         <v>0.12356862745098039</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="29">
         <f t="shared" ref="F38:I38" si="7">F37/F25</f>
         <v>0.16773886109125566</v>
       </c>
-      <c r="G38" s="32">
+      <c r="G38" s="29">
         <f t="shared" si="7"/>
         <v>0.1695258100906368</v>
       </c>
-      <c r="H38" s="32">
+      <c r="H38" s="29">
         <f t="shared" si="7"/>
         <v>0.11000775795190069</v>
       </c>
-      <c r="I38" s="32">
+      <c r="I38" s="29">
         <f t="shared" si="7"/>
         <v>0.13637980085348506</v>
       </c>
@@ -1727,7 +1709,7 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1751,13 +1733,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F70B292-7CC4-48FA-839A-9600180E9AFF}">
   <dimension ref="A2:AZ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="1.69921875" customWidth="1"/>
+    <col min="10" max="10" width="23.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:52" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1766,196 +1749,130 @@
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.4">
+      <c r="J15" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="T15" s="22"/>
+      <c r="Y15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AN15" s="22"/>
+      <c r="AS15" s="21"/>
+      <c r="AX15" s="21"/>
+    </row>
+    <row r="16" spans="1:52" s="45" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16"/>
+      <c r="H16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16"/>
+      <c r="K16"/>
+      <c r="L16" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J15" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y15" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD15" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI15" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN15" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS15" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="AX15" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:52" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F16" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="26"/>
-      <c r="M16" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="O16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="P16" s="24" t="s">
+      <c r="R16" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="U16" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="V16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="Q16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="T16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="U16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="V16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="W16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="X16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AE16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AO16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU16" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="AX16" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="AY16" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="AZ16" s="25" t="s">
-        <v>11</v>
-      </c>
+      <c r="W16" s="44"/>
+      <c r="X16" s="44"/>
+      <c r="Y16" s="44"/>
+      <c r="Z16" s="44"/>
+      <c r="AA16" s="44"/>
+      <c r="AB16" s="44"/>
+      <c r="AC16" s="44"/>
+      <c r="AD16" s="44"/>
+      <c r="AE16" s="44"/>
+      <c r="AF16" s="44"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="44"/>
+      <c r="AI16" s="44"/>
+      <c r="AJ16" s="44"/>
+      <c r="AK16" s="44"/>
+      <c r="AL16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="44"/>
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="44"/>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="44"/>
     </row>
     <row r="17" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
@@ -1964,7 +1881,7 @@
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1974,14 +1891,17 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D18" t="s">
-        <v>27</v>
+    <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="35">
+        <v>21</v>
+      </c>
+      <c r="J18" s="48">
         <v>3829117222912</v>
       </c>
     </row>
@@ -1991,31 +1911,40 @@
         <v>2</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D21" t="s">
-        <v>60</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D22" t="s">
-        <v>61</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D23" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.4">
@@ -2024,31 +1953,40 @@
         <v>2</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D26" t="s">
-        <v>63</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D27" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D28" t="s">
-        <v>65</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="20" customFormat="1" x14ac:dyDescent="0.4">
@@ -2057,34 +1995,43 @@
         <v>2</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D31" t="s">
-        <v>66</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D32" t="s">
-        <v>67</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D33" t="s">
-        <v>68</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="F34" s="2"/>
     </row>
   </sheetData>
@@ -2116,12 +2063,12 @@
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
@@ -2129,17 +2076,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
@@ -2147,40 +2094,937 @@
         <v>2</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C16" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF2B233-2CE6-4ED7-9697-CFA279F01E4D}">
+  <dimension ref="A1:AE11"/>
+  <sheetViews>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="23">
+        <v>45910</v>
+      </c>
+      <c r="C1" s="23">
+        <v>45911</v>
+      </c>
+      <c r="D1" s="23">
+        <v>45912</v>
+      </c>
+      <c r="E1" s="23">
+        <v>45913</v>
+      </c>
+      <c r="F1" s="23">
+        <v>45914</v>
+      </c>
+      <c r="G1" s="23">
+        <v>45915</v>
+      </c>
+      <c r="H1" s="23">
+        <v>45916</v>
+      </c>
+      <c r="I1" s="23">
+        <v>45917</v>
+      </c>
+      <c r="J1" s="23">
+        <v>45918</v>
+      </c>
+      <c r="K1" s="23">
+        <v>45919</v>
+      </c>
+      <c r="L1" s="23">
+        <v>45920</v>
+      </c>
+      <c r="M1" s="23">
+        <v>45921</v>
+      </c>
+      <c r="N1" s="23">
+        <v>45922</v>
+      </c>
+      <c r="O1" s="23">
+        <v>45923</v>
+      </c>
+      <c r="P1" s="23">
+        <v>45924</v>
+      </c>
+      <c r="Q1" s="23">
+        <v>45925</v>
+      </c>
+      <c r="R1" s="23">
+        <v>45926</v>
+      </c>
+      <c r="S1" s="23">
+        <v>45927</v>
+      </c>
+      <c r="T1" s="23">
+        <v>45928</v>
+      </c>
+      <c r="U1" s="23">
+        <v>45929</v>
+      </c>
+      <c r="V1" s="23">
+        <v>45930</v>
+      </c>
+      <c r="W1" s="23">
+        <v>45931</v>
+      </c>
+      <c r="X1" s="23">
+        <v>45932</v>
+      </c>
+      <c r="Y1" s="23">
+        <v>45933</v>
+      </c>
+      <c r="Z1" s="23">
+        <v>45934</v>
+      </c>
+      <c r="AA1" s="23">
+        <v>45935</v>
+      </c>
+      <c r="AB1" s="23">
+        <v>45936</v>
+      </c>
+      <c r="AC1" s="23">
+        <v>45937</v>
+      </c>
+      <c r="AD1" s="23">
+        <v>45938</v>
+      </c>
+      <c r="AE1" s="23">
+        <v>45939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="26">
+        <v>350.54998779296875</v>
+      </c>
+      <c r="C3" s="26">
+        <v>350.17001342773438</v>
+      </c>
+      <c r="D3" s="26">
+        <v>370.94000244140625</v>
+      </c>
+      <c r="E3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
+        <v>423.1300048828125</v>
+      </c>
+      <c r="H3" s="26">
+        <v>414.5</v>
+      </c>
+      <c r="I3" s="26">
+        <v>415.75</v>
+      </c>
+      <c r="J3" s="26">
+        <v>428.8699951171875</v>
+      </c>
+      <c r="K3" s="26">
+        <v>421.82000732421875</v>
+      </c>
+      <c r="L3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" s="26">
+        <v>431.1099853515625</v>
+      </c>
+      <c r="O3" s="26">
+        <v>439.8800048828125</v>
+      </c>
+      <c r="P3" s="26">
+        <v>429.82998657226563</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>435.239990234375</v>
+      </c>
+      <c r="R3" s="26">
+        <v>428.29998779296875</v>
+      </c>
+      <c r="S3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="26">
+        <v>444.35000610351563</v>
+      </c>
+      <c r="V3" s="26">
+        <v>441.51998901367188</v>
+      </c>
+      <c r="W3" s="26">
+        <v>443.79998779296875</v>
+      </c>
+      <c r="X3" s="26">
+        <v>470.54000854492188</v>
+      </c>
+      <c r="Y3" s="26">
+        <v>443.29000854492188</v>
+      </c>
+      <c r="Z3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="26">
+        <v>440.75</v>
+      </c>
+      <c r="AC3" s="26">
+        <v>447.82000732421875</v>
+      </c>
+      <c r="AD3" s="26">
+        <v>437.57000732421875</v>
+      </c>
+      <c r="AE3" s="26">
+        <v>431.70001220703125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="26">
+        <v>347.79000854492188</v>
+      </c>
+      <c r="C4" s="26">
+        <v>368.80999755859375</v>
+      </c>
+      <c r="D4" s="26">
+        <v>395.94000244140625</v>
+      </c>
+      <c r="E4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
+        <v>410.04000854492188</v>
+      </c>
+      <c r="H4" s="26">
+        <v>421.6199951171875</v>
+      </c>
+      <c r="I4" s="26">
+        <v>425.8599853515625</v>
+      </c>
+      <c r="J4" s="26">
+        <v>416.85000610351563</v>
+      </c>
+      <c r="K4" s="26">
+        <v>426.07000732421875</v>
+      </c>
+      <c r="L4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4" s="26">
+        <v>434.20999145507813</v>
+      </c>
+      <c r="O4" s="26">
+        <v>425.85000610351563</v>
+      </c>
+      <c r="P4" s="26">
+        <v>442.79000854492188</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>423.3900146484375</v>
+      </c>
+      <c r="R4" s="26">
+        <v>440.39999389648438</v>
+      </c>
+      <c r="S4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="26">
+        <v>443.20999145507813</v>
+      </c>
+      <c r="V4" s="26">
+        <v>444.72000122070313</v>
+      </c>
+      <c r="W4" s="26">
+        <v>459.45999145507813</v>
+      </c>
+      <c r="X4" s="26">
+        <v>436</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>429.82998657226563</v>
+      </c>
+      <c r="Z4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="26">
+        <v>453.25</v>
+      </c>
+      <c r="AC4" s="26">
+        <v>433.08999633789063</v>
+      </c>
+      <c r="AD4" s="26">
+        <v>438.69000244140625</v>
+      </c>
+      <c r="AE4" s="26">
+        <v>429.53988647460938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A5" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="29">
+        <f>(C3-B3)/B3</f>
+        <v>-1.0839377505806218E-3</v>
+      </c>
+      <c r="D5" s="29">
+        <f t="shared" ref="D5:AE5" si="0">(D3-C3)/C3</f>
+        <v>5.9314013813916246E-2</v>
+      </c>
+      <c r="E5" s="29">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F5" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="29">
+        <f t="shared" si="0"/>
+        <v>-2.0395634398942267E-2</v>
+      </c>
+      <c r="I5" s="29">
+        <f t="shared" si="0"/>
+        <v>3.0156815440289505E-3</v>
+      </c>
+      <c r="J5" s="29">
+        <f t="shared" si="0"/>
+        <v>3.1557414593355385E-2</v>
+      </c>
+      <c r="K5" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.6438519535605097E-2</v>
+      </c>
+      <c r="L5" s="29">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="M5" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="29">
+        <f t="shared" si="0"/>
+        <v>2.034288193092583E-2</v>
+      </c>
+      <c r="P5" s="29">
+        <f t="shared" si="0"/>
+        <v>-2.2847181501746774E-2</v>
+      </c>
+      <c r="Q5" s="29">
+        <f t="shared" si="0"/>
+        <v>1.2586380269213285E-2</v>
+      </c>
+      <c r="R5" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.5945231589746811E-2</v>
+      </c>
+      <c r="S5" s="29">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="T5" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U5" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V5" s="29">
+        <f t="shared" si="0"/>
+        <v>-6.3688917541827829E-3</v>
+      </c>
+      <c r="W5" s="29">
+        <f t="shared" si="0"/>
+        <v>5.163976345420397E-3</v>
+      </c>
+      <c r="X5" s="29">
+        <f t="shared" si="0"/>
+        <v>6.025241434758051E-2</v>
+      </c>
+      <c r="Y5" s="29">
+        <f t="shared" si="0"/>
+        <v>-5.7912184947390026E-2</v>
+      </c>
+      <c r="Z5" s="29">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="AA5" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" s="29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC5" s="29">
+        <f t="shared" si="0"/>
+        <v>1.6040856095788428E-2</v>
+      </c>
+      <c r="AD5" s="29">
+        <f t="shared" si="0"/>
+        <v>-2.2888660248221261E-2</v>
+      </c>
+      <c r="AE5" s="29">
+        <f t="shared" si="0"/>
+        <v>-1.3414985074235471E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="26">
+        <v>356.32998657226563</v>
+      </c>
+      <c r="C6" s="26">
+        <v>368.989990234375</v>
+      </c>
+      <c r="D6" s="26">
+        <v>396.69000244140625</v>
+      </c>
+      <c r="E6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
+        <v>425.70001220703125</v>
+      </c>
+      <c r="H6" s="26">
+        <v>423.25</v>
+      </c>
+      <c r="I6" s="26">
+        <v>428.30999755859375</v>
+      </c>
+      <c r="J6" s="26">
+        <v>432.22000122070313</v>
+      </c>
+      <c r="K6" s="26">
+        <v>429.47000122070313</v>
+      </c>
+      <c r="L6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="26">
+        <v>444.98001098632813</v>
+      </c>
+      <c r="O6" s="26">
+        <v>440.97000122070313</v>
+      </c>
+      <c r="P6" s="26">
+        <v>444.20999145507813</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>435.35000610351563</v>
+      </c>
+      <c r="R6" s="26">
+        <v>440.47000122070313</v>
+      </c>
+      <c r="S6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="26">
+        <v>450.98001098632813</v>
+      </c>
+      <c r="V6" s="26">
+        <v>445</v>
+      </c>
+      <c r="W6" s="26">
+        <v>462.29000854492188</v>
+      </c>
+      <c r="X6" s="26">
+        <v>470.75</v>
+      </c>
+      <c r="Y6" s="26">
+        <v>446.76998901367188</v>
+      </c>
+      <c r="Z6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="26">
+        <v>453.54998779296875</v>
+      </c>
+      <c r="AC6" s="26">
+        <v>452.67999267578125</v>
+      </c>
+      <c r="AD6" s="26">
+        <v>441.32998657226563</v>
+      </c>
+      <c r="AE6" s="26">
+        <v>434.33999633789063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="26">
+        <v>346.07000732421875</v>
+      </c>
+      <c r="C7" s="26">
+        <v>347.60000610351563</v>
+      </c>
+      <c r="D7" s="26">
+        <v>370.239990234375</v>
+      </c>
+      <c r="E7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
+        <v>402.42999267578125</v>
+      </c>
+      <c r="H7" s="26">
+        <v>411.42999267578125</v>
+      </c>
+      <c r="I7" s="26">
+        <v>409.67001342773438</v>
+      </c>
+      <c r="J7" s="26">
+        <v>416.55999755859375</v>
+      </c>
+      <c r="K7" s="26">
+        <v>421.72000122070313</v>
+      </c>
+      <c r="L7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="26">
+        <v>429.1300048828125</v>
+      </c>
+      <c r="O7" s="26">
+        <v>423.72000122070313</v>
+      </c>
+      <c r="P7" s="26">
+        <v>429.02999877929688</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>419.07998657226563</v>
+      </c>
+      <c r="R7" s="26">
+        <v>421.01998901367188</v>
+      </c>
+      <c r="S7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="26">
+        <v>439.5</v>
+      </c>
+      <c r="V7" s="26">
+        <v>433.1199951171875</v>
+      </c>
+      <c r="W7" s="26">
+        <v>440.75</v>
+      </c>
+      <c r="X7" s="26">
+        <v>435.57000732421875</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>416.57998657226563</v>
+      </c>
+      <c r="Z7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="26">
+        <v>436.69000244140625</v>
+      </c>
+      <c r="AC7" s="26">
+        <v>432.45001220703125</v>
+      </c>
+      <c r="AD7" s="26">
+        <v>425.23001098632813</v>
+      </c>
+      <c r="AE7" s="26">
+        <v>426.17999267578125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A8" s="18" t="s">
         <v>80</v>
+      </c>
+      <c r="B8" s="26">
+        <v>-2.759979248046875</v>
+      </c>
+      <c r="C8" s="26">
+        <v>18.639984130859375</v>
+      </c>
+      <c r="D8" s="26">
+        <v>25</v>
+      </c>
+      <c r="E8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
+        <v>-13.089996337890625</v>
+      </c>
+      <c r="H8" s="26">
+        <v>7.1199951171875</v>
+      </c>
+      <c r="I8" s="26">
+        <v>10.1099853515625</v>
+      </c>
+      <c r="J8" s="26">
+        <v>-12.019989013671875</v>
+      </c>
+      <c r="K8" s="26">
+        <v>4.25</v>
+      </c>
+      <c r="L8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="26">
+        <v>3.100006103515625</v>
+      </c>
+      <c r="O8" s="26">
+        <v>-14.029998779296875</v>
+      </c>
+      <c r="P8" s="26">
+        <v>12.96002197265625</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>-11.8499755859375</v>
+      </c>
+      <c r="R8" s="26">
+        <v>12.100006103515625</v>
+      </c>
+      <c r="S8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="26">
+        <v>-1.1400146484375</v>
+      </c>
+      <c r="V8" s="26">
+        <v>3.20001220703125</v>
+      </c>
+      <c r="W8" s="26">
+        <v>15.660003662109375</v>
+      </c>
+      <c r="X8" s="26">
+        <v>-34.540008544921875</v>
+      </c>
+      <c r="Y8" s="26">
+        <v>-13.46002197265625</v>
+      </c>
+      <c r="Z8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="26">
+        <v>12.5</v>
+      </c>
+      <c r="AC8" s="26">
+        <v>-14.730010986328125</v>
+      </c>
+      <c r="AD8" s="26">
+        <v>1.1199951171875</v>
+      </c>
+      <c r="AE8" s="26">
+        <v>-2.160125732421875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A9" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="26">
+        <v>72121700</v>
+      </c>
+      <c r="C9" s="26">
+        <v>103756000</v>
+      </c>
+      <c r="D9" s="26">
+        <v>168156400</v>
+      </c>
+      <c r="E9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <v>163823700</v>
+      </c>
+      <c r="H9" s="26">
+        <v>104285700</v>
+      </c>
+      <c r="I9" s="26">
+        <v>106133500</v>
+      </c>
+      <c r="J9" s="26">
+        <v>90454500</v>
+      </c>
+      <c r="K9" s="26">
+        <v>93131000</v>
+      </c>
+      <c r="L9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N9" s="26">
+        <v>97108800</v>
+      </c>
+      <c r="O9" s="26">
+        <v>83422700</v>
+      </c>
+      <c r="P9" s="26">
+        <v>93133600</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>96746400</v>
+      </c>
+      <c r="R9" s="26">
+        <v>101628200</v>
+      </c>
+      <c r="S9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="26">
+        <v>79491500</v>
+      </c>
+      <c r="V9" s="26">
+        <v>74358000</v>
+      </c>
+      <c r="W9" s="26">
+        <v>98122300</v>
+      </c>
+      <c r="X9" s="26">
+        <v>137009000</v>
+      </c>
+      <c r="Y9" s="26">
+        <v>133188200</v>
+      </c>
+      <c r="Z9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="26">
+        <v>85324900</v>
+      </c>
+      <c r="AC9" s="26">
+        <v>102296100</v>
+      </c>
+      <c r="AD9" s="26">
+        <v>70968500</v>
+      </c>
+      <c r="AE9" s="26">
+        <v>46451310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.4">
+      <c r="A11" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="26">
+        <v>1.0296471206140516</v>
+      </c>
+      <c r="C11" s="42">
+        <v>1.0615362018275956</v>
+      </c>
+      <c r="D11" s="42">
+        <v>1.0714401817866499</v>
+      </c>
+      <c r="E11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="42">
+        <v>1.0578237704812363</v>
+      </c>
+      <c r="H11" s="26">
+        <v>1.0287290852262521</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1.0454999963870859</v>
+      </c>
+      <c r="J11" s="26">
+        <v>1.0375936329793805</v>
+      </c>
+      <c r="K11" s="26">
+        <v>1.0183771222080218</v>
+      </c>
+      <c r="L11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" s="26">
+        <v>1.036935208265952</v>
+      </c>
+      <c r="O11" s="26">
+        <v>1.0407108466683286</v>
+      </c>
+      <c r="P11" s="26">
+        <v>1.0353821241381076</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>1.0388231842430022</v>
+      </c>
+      <c r="R11" s="26">
+        <v>1.0461973604925434</v>
+      </c>
+      <c r="S11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="T11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" s="26">
+        <v>1.026120616578676</v>
+      </c>
+      <c r="V11" s="26">
+        <v>1.0274288996507728</v>
+      </c>
+      <c r="W11" s="26">
+        <v>1.0488712615880247</v>
+      </c>
+      <c r="X11" s="42">
+        <v>1.080767711468239</v>
+      </c>
+      <c r="Y11" s="42">
+        <v>1.0724710821799623</v>
+      </c>
+      <c r="Z11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="26">
+        <v>1.0386085902065614</v>
+      </c>
+      <c r="AC11" s="26">
+        <v>1.0467799280788668</v>
+      </c>
+      <c r="AD11" s="26">
+        <v>1.0378618045998056</v>
+      </c>
+      <c r="AE11" s="26">
+        <v>1.0191468482855721</v>
       </c>
     </row>
   </sheetData>
